--- a/Components/Jacdac_Pressure_Sensor_RevB_BOM.xlsx
+++ b/Components/Jacdac_Pressure_Sensor_RevB_BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Milad\Development\Jacdac\Jacdac-Pressure-Sensor\Components\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29441F8B-AD71-40EB-8373-FB03559AE7E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B111A39-E49C-44E5-B2F4-8F972B873ECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-55" yWindow="-55" windowWidth="19310" windowHeight="11510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RevB" sheetId="3" r:id="rId1"/>
@@ -66,9 +66,6 @@
     <t>Total Price (CAD)</t>
   </si>
   <si>
-    <t>R1,R2</t>
-  </si>
-  <si>
     <t>150R</t>
   </si>
   <si>
@@ -292,6 +289,9 @@
   </si>
   <si>
     <t>https://lcsc.com/product-detail/Linear-Voltage-Regulators-LDO_YONGYUTAI-XC6206-3-3V_C2891841.html</t>
+  </si>
+  <si>
+    <t>R1,R2,R4</t>
   </si>
 </sst>
 </file>
@@ -1172,8 +1172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20DD1190-5593-48E9-AA0A-6946DA6E214E}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1203,7 +1203,7 @@
         <v>8</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>3</v>
@@ -1226,32 +1226,32 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="H2" s="1">
         <v>2.3300000000000001E-2</v>
       </c>
       <c r="I2" s="1">
         <f>H2*B2</f>
-        <v>4.6600000000000003E-2</v>
+        <v>6.9900000000000004E-2</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1262,19 +1262,19 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="H3" s="1">
         <v>2.7199999999999998E-2</v>
@@ -1284,7 +1284,7 @@
         <v>5.4399999999999997E-2</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
@@ -1295,19 +1295,19 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="H4" s="1">
         <v>3.9399999999999998E-2</v>
@@ -1317,7 +1317,7 @@
         <v>3.9399999999999998E-2</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
@@ -1328,19 +1328,19 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="H5" s="1">
         <v>3.2000000000000001E-2</v>
@@ -1350,7 +1350,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
@@ -1361,19 +1361,19 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="H6" s="1">
         <v>10.89</v>
@@ -1383,10 +1383,10 @@
         <v>10.89</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
@@ -1397,19 +1397,19 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="F7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H7" s="1">
         <v>0.98</v>
@@ -1419,7 +1419,7 @@
         <v>0.98</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
@@ -1433,16 +1433,16 @@
         <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="H8" s="1">
         <v>6.1400000000000003E-2</v>
@@ -1452,7 +1452,7 @@
         <v>6.1400000000000003E-2</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
@@ -1463,19 +1463,19 @@
         <v>2</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="H9" s="1">
         <v>2.2700000000000001E-2</v>
@@ -1485,7 +1485,7 @@
         <v>4.5400000000000003E-2</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
@@ -1496,19 +1496,19 @@
         <v>2</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="H10" s="1">
         <v>4.7600000000000003E-2</v>
@@ -1518,7 +1518,7 @@
         <v>9.5200000000000007E-2</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
@@ -1529,19 +1529,19 @@
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="H11" s="1">
         <v>3.3500000000000002E-2</v>
@@ -1551,7 +1551,7 @@
         <v>3.3500000000000002E-2</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
@@ -1562,19 +1562,19 @@
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="H12" s="1">
         <v>3.0800000000000001E-2</v>
@@ -1584,7 +1584,7 @@
         <v>3.0800000000000001E-2</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
@@ -1595,19 +1595,19 @@
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="G13" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H13" s="1">
         <v>2.8899999999999999E-2</v>
@@ -1617,7 +1617,7 @@
         <v>2.8899999999999999E-2</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
@@ -1628,19 +1628,19 @@
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="G14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H14" s="1">
         <v>2.4500000000000001E-2</v>
@@ -1650,7 +1650,7 @@
         <v>2.4500000000000001E-2</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="8:9" x14ac:dyDescent="0.35">
@@ -1659,7 +1659,7 @@
       </c>
       <c r="I17" s="1">
         <f>SUM(I2:I14)</f>
-        <v>12.362100000000002</v>
+        <v>12.385400000000002</v>
       </c>
     </row>
   </sheetData>
